--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2740004.915734898</v>
+        <v>-2742603.710705561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.96577973845328</v>
+        <v>365.6488213591377</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562904</v>
+        <v>43.86785806562898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>37.69069145970068</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285532</v>
+        <v>19.9118952728553</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516765</v>
+        <v>2.116953416516736</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456432</v>
+        <v>90.1306755145643</v>
       </c>
       <c r="S4" t="n">
         <v>190.2335559203904</v>
@@ -874,7 +874,7 @@
         <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>33.6914623282766</v>
+        <v>33.69146232827683</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242894</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079367</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.51165059784287</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.238372828422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200668</v>
+        <v>160.5958651236767</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.76004954248994</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>160.7365361851539</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518788</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833912</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272876</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428254</v>
+        <v>20.88994825141612</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.405450327288</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.0656089242819</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.800047274035</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596499</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833807</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833826</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892447</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308912</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652636</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652582</v>
@@ -2998,13 +2998,13 @@
         <v>42.09059921808197</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541844</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652636</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.6787171265751</v>
+        <v>847.6787171265769</v>
       </c>
       <c r="C2" t="n">
-        <v>478.7162001861634</v>
+        <v>478.7162001861652</v>
       </c>
       <c r="D2" t="n">
-        <v>120.450501579413</v>
+        <v>478.7162001861652</v>
       </c>
       <c r="E2" t="n">
         <v>109.3739563890564</v>
@@ -4325,13 +4325,13 @@
         <v>109.3739563890564</v>
       </c>
       <c r="I2" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731309</v>
+        <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032912</v>
+        <v>575.2851091032917</v>
       </c>
       <c r="L2" t="n">
         <v>1017.035607679883</v>
@@ -4346,34 +4346,34 @@
         <v>2569.579722854076</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.89435330231</v>
+        <v>2955.894353302311</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704722</v>
+        <v>3197.827805704723</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.14943229984</v>
+        <v>3253.149432299841</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637405</v>
+        <v>3141.490970637406</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674411</v>
+        <v>2935.250468674413</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041273</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697702</v>
+        <v>2350.652302697704</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427588</v>
+        <v>1997.88364742759</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166509</v>
+        <v>1624.41788916651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.278557190697</v>
+        <v>1234.278557190699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.8020873615114</v>
+        <v>888.8020873615123</v>
       </c>
       <c r="C3" t="n">
-        <v>714.3490580803845</v>
+        <v>714.3490580803854</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191331</v>
+        <v>565.4146484191342</v>
       </c>
       <c r="E3" t="n">
-        <v>406.1771934136775</v>
+        <v>406.1771934136787</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>259.6426354405637</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678766</v>
+        <v>123.2474196889825</v>
       </c>
       <c r="H3" t="n">
-        <v>85.17601417413348</v>
+        <v>85.1760141741335</v>
       </c>
       <c r="I3" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J3" t="n">
         <v>155.7664206654044</v>
       </c>
       <c r="K3" t="n">
-        <v>388.947857741591</v>
+        <v>388.9478577415907</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223339</v>
+        <v>748.8116174223337</v>
       </c>
       <c r="M3" t="n">
         <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.44905411995</v>
+        <v>1653.449054119951</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259247</v>
+        <v>2056.921277259248</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824782</v>
+        <v>2361.410240824783</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.0338528903</v>
+        <v>2515.033852890301</v>
       </c>
       <c r="R3" t="n">
         <v>2512.89551610594</v>
       </c>
       <c r="S3" t="n">
-        <v>2382.861096708697</v>
+        <v>2382.861096708698</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044977</v>
+        <v>2190.088648044978</v>
       </c>
       <c r="U3" t="n">
-        <v>1962.01868831201</v>
+        <v>1962.018688312012</v>
       </c>
       <c r="V3" t="n">
-        <v>1726.866580080268</v>
+        <v>1726.866580080269</v>
       </c>
       <c r="W3" t="n">
-        <v>1472.629223352066</v>
+        <v>1472.629223352067</v>
       </c>
       <c r="X3" t="n">
-        <v>1264.777723146533</v>
+        <v>1264.777723146534</v>
       </c>
       <c r="Y3" t="n">
         <v>1057.01742438158</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="C4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="D4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="E4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="F4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="G4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="H4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="I4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274261</v>
+        <v>75.0200521227427</v>
       </c>
       <c r="K4" t="n">
-        <v>170.265004503353</v>
+        <v>170.2650045033533</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633489</v>
+        <v>322.0515495633493</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992782</v>
+        <v>485.3474622992786</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206061</v>
+        <v>652.6180891206068</v>
       </c>
       <c r="O4" t="n">
-        <v>786.806497607966</v>
+        <v>786.8064976079667</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983268</v>
+        <v>882.5658916983275</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529781</v>
+        <v>893.2769546529788</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746303</v>
+        <v>802.235868274631</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843372</v>
+        <v>610.0807612843378</v>
       </c>
       <c r="T4" t="n">
-        <v>388.1991042659416</v>
+        <v>388.199104265942</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877556912</v>
+        <v>99.09476877556938</v>
       </c>
       <c r="V4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="W4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="X4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.0629886459968</v>
+        <v>65.06298864599682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003192</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107116</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>282.0423703961122</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8247324870306</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>865.8247324870306</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133545</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133545</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X7" t="n">
-        <v>410.0175235133545</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285688</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285688</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678938</v>
+        <v>1365.084818551271</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080693</v>
+        <v>979.2965659530264</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910857</v>
+        <v>568.3106611634189</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2510.786507531616</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>758.526868257424</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145372</v>
+        <v>758.526868257424</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145372</v>
+        <v>758.526868257424</v>
       </c>
       <c r="V10" t="n">
-        <v>252.7500180086504</v>
+        <v>503.8423800515371</v>
       </c>
       <c r="W10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400764</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121696</v>
+        <v>344.9174178121653</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998296</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,7 +5221,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5236,13 +5236,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611864</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138463</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703162</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,13 +5546,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591808</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277358</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277358</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298254</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,7 +5686,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5701,7 +5701,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854706</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121641</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998283</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5938,7 +5938,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,7 +6175,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6400,31 +6400,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6610,7 +6610,7 @@
         <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6926,43 +6926,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384026</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,28 +7810,28 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.9645903338085</v>
+        <v>16.2815487131241</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22635,13 +22635,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.21325120110654</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.213251201105</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370429</v>
+        <v>97.15402040370428</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.4461809955514</v>
+        <v>218.4461809955512</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392552</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788478</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409392981</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393045</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823384</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788596</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1426535.260652795</v>
+        <v>1426535.260652794</v>
       </c>
     </row>
     <row r="6">
@@ -26366,13 +26366,13 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833921</v>
+        <v>19312.30676833893</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097966</v>
+        <v>232219.4755097967</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940999</v>
+        <v>4661.98900094094</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742</v>
+        <v>572.0114859742001</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,7 +26430,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26448,16 +26448,16 @@
         <v>22817.55530496083</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496078</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496082</v>
       </c>
-      <c r="N4" t="n">
-        <v>22817.55530496084</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496081</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106510.3641235035</v>
+        <v>106510.3641235036</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311425</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220842.9914337851</v>
+        <v>-220842.9914337847</v>
       </c>
       <c r="D6" t="n">
-        <v>-201530.6846654459</v>
+        <v>-201530.6846654458</v>
       </c>
       <c r="E6" t="n">
-        <v>-441361.68767313</v>
+        <v>-441396.4255985651</v>
       </c>
       <c r="F6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="G6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="H6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="I6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="J6" t="n">
         <v>-358201.1466686729</v>
@@ -26552,7 +26552,7 @@
         <v>-125981.6711588762</v>
       </c>
       <c r="M6" t="n">
-        <v>-211036.6990943882</v>
+        <v>-211036.6990943881</v>
       </c>
       <c r="N6" t="n">
         <v>-125981.6711588762</v>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749599</v>
+        <v>813.2873580749603</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26960,13 @@
         <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128116</v>
+        <v>14.78162020128093</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749599</v>
+        <v>813.2873580749603</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733284</v>
+        <v>18.11409732733262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749599</v>
+        <v>813.2873580749603</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733284</v>
+        <v>18.11409732733262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749599</v>
+        <v>813.2873580749603</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733284</v>
+        <v>18.11409732733262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303102</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781083</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27822,10 +27822,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>135.257374733599</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.34628052367276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333866</v>
+        <v>250.3258605297767</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>131.4867715561379</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>29.03248914628804</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.010054671814431e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.608106488982836e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.566747394273988e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882478</v>
+        <v>4.321588262882479</v>
       </c>
       <c r="H2" t="n">
         <v>44.25846579724519</v>
@@ -31048,40 +31048,40 @@
         <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
-        <v>366.789401826822</v>
+        <v>366.7894018268221</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946375</v>
+        <v>549.7222329946376</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948271</v>
+        <v>681.9790397948274</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648634</v>
+        <v>758.8330850648636</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167784</v>
+        <v>771.1117977167785</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277406</v>
+        <v>728.1390044277408</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878294</v>
+        <v>621.4497941878295</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233505</v>
+        <v>466.6829145233506</v>
       </c>
       <c r="R2" t="n">
         <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043456</v>
+        <v>98.47819254043458</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305981</v>
+        <v>0.3457270610305982</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145093</v>
+        <v>2.312253569145094</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714468</v>
+        <v>79.61048472714469</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690985</v>
+        <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018198</v>
+        <v>373.3782441018199</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321398</v>
+        <v>502.0531269321399</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136493</v>
+        <v>585.8723188136494</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751531</v>
+        <v>601.3786157751532</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851486</v>
+        <v>550.1439445851487</v>
       </c>
       <c r="P3" t="n">
         <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087667</v>
+        <v>295.1571398087668</v>
       </c>
       <c r="R3" t="n">
         <v>143.5625505474472</v>
@@ -31157,10 +31157,10 @@
         <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738335</v>
+        <v>9.320004517738337</v>
       </c>
       <c r="U3" t="n">
-        <v>0.152121945338493</v>
+        <v>0.1521219453384931</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355399</v>
+        <v>58.296454523554</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
@@ -31218,10 +31218,10 @@
         <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776858</v>
+        <v>296.6457735776859</v>
       </c>
       <c r="O4" t="n">
-        <v>274.0003854087719</v>
+        <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
         <v>234.4546647464818</v>
@@ -31230,13 +31230,13 @@
         <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260517</v>
+        <v>87.16271586260518</v>
       </c>
       <c r="S4" t="n">
-        <v>33.7830421165819</v>
+        <v>33.78304211658191</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069638</v>
+        <v>8.282748980069639</v>
       </c>
       <c r="U4" t="n">
         <v>0.1057372210221657</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948329</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001357</v>
+        <v>185.7434973001358</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496569</v>
+        <v>329.632381949657</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248399</v>
+        <v>446.2126248248401</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375907</v>
+        <v>528.4868518375908</v>
       </c>
       <c r="N2" t="n">
         <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060538</v>
+        <v>498.0407930060541</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325599</v>
+        <v>390.21679843256</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.377224648901</v>
+        <v>244.3772246489011</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415954</v>
+        <v>55.8804309041596</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243183</v>
+        <v>91.61962830243189</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274608</v>
+        <v>235.5368051274609</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522656</v>
+        <v>363.4987471522657</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916309</v>
+        <v>443.7382848916311</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918198</v>
+        <v>470.0369036918199</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407041</v>
+        <v>407.5477001407043</v>
       </c>
       <c r="P3" t="n">
-        <v>307.564609662157</v>
+        <v>307.5646096621571</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227452</v>
+        <v>155.1753657227453</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550087</v>
+        <v>10.0576398755009</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667733</v>
+        <v>96.20702260667736</v>
       </c>
       <c r="L4" t="n">
         <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999285</v>
+        <v>164.9453663999286</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124526</v>
+        <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569291</v>
+        <v>135.5438469569292</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733418</v>
+        <v>96.72666069733421</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974873</v>
+        <v>10.81925550974879</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281453</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315785</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
